--- a/BackTest/2020-01-14 BackTest XRP.xlsx
+++ b/BackTest/2020-01-14 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1422.790244270012</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5415.922155729988</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>20073.57965572999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>20073.57965572999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>20073.57965572999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-12183.86934427001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>12495.52365572999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>12495.52365572999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-60752.85814427002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-77950.44634427002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-77950.44634427002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-77950.44634427002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-73349.49474427002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-39484.81114427002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-47354.48036760002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1953.225067600026</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-140700.2552676</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-140700.2552676</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-147546.7612676</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-144911.1734676</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-56016.54546760002</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-51818.22724831002</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-52229.72274831002</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-51611.50304831002</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-65336.43134831003</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-75929.94834831002</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-77963.86174831002</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-77963.86174831002</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-77963.86174831002</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-89250.02224831002</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-32397.16334831002</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-55497.21014831003</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-51325.57534831003</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-62542.47374831003</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-75751.90954831002</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-80178.19354831002</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-82665.17354831002</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-82501.17354831002</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-65823.15004831001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-65823.15004831001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-274349.6256483101</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-150315.2150483101</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-144203.4671483101</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-127293.1498483101</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-127293.1498483101</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-127310.1498483101</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-127310.1498483101</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-121346.3883483101</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-121305.0318553501</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-121305.0318553501</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-121305.0318553501</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-133484.1587483101</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-136737.9187483101</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-136737.9187483101</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-136735.2869483101</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-136740.2869483101</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-136866.8952483101</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-132706.8765483101</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-132824.9121483101</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-134064.4330483101</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-134012.2170483101</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-134012.2170483101</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-134012.2170483101</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-138037.8118483101</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-5679.700148310099</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-6113.400148310099</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-6113.400148310099</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1319.582648310099</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1739.383048310099</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>5858.295051689901</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>5858.295051689901</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>149.0593516899007</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-42128.0302483101</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-60521.1736483101</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-64995.6360483101</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-64995.6360483101</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-65427.9158483101</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-65741.0711483101</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-2419.520148310094</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-65119.9829483101</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-64623.9829483101</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-64623.9829483101</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-64150.1909483101</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-65186.4677483101</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-65456.6367483101</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-67089.3473483101</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-67089.3473483101</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-4428.414448310097</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>7606.376292889903</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>22640.3818917699</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>22501.5775917699</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>19535.8302917699</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>19535.8302917699</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-26570.10534073009</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-20276.5623407301</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-22481.35414073009</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-16077.2184407301</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-16077.2184407301</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-83688.5803054901</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-83634.9368054901</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-84634.9368054901</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-105842.3400054901</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-105834.0400054901</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-123576.0400054901</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-131499.2011054901</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-136396.2368012301</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-136396.2368012301</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-156125.1278012301</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-156125.1278012301</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-124608.3677012301</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-134728.5927283101</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-134728.5927283101</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-135974.0552283101</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-135974.0552283101</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-135974.0552283101</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-135474.0552283101</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-155728.2719283101</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-137406.4523283101</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-11187.8452241801</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-12818.0644241801</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>8121.649375819903</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>8121.649375819903</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>8121.649375819903</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-7262.931724180096</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-45978.1309241801</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-47335.0267241801</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-47335.0267241801</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-30524.8325241801</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-30524.8325241801</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-30524.8325241801</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-30524.8325241801</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>16286.6945758199</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>4488.576975819904</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>44077.5468758199</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>122510.2742758199</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>122398.4495758199</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>122398.4495758199</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>111462.0948758199</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-58993.67846069009</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-10467.66639720009</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>26069.72300279991</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>3705.495602799911</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-3452.58859720009</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>22179.30300279991</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>23674.79330279991</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>23674.79330279991</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>13705.16570279991</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-1.078952250090879</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>10132.47502203991</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>10132.47502203991</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>10132.47502203991</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-87406.92367796009</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-6068.168977960086</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-66979.43737796009</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-114798.3464205701</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-115275.6064205701</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-22373.89066318008</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>82494.42043681993</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>82494.42043681993</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-39288.33039792007</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-144026.1006518701</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-19885.76825187007</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-19885.76825187007</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-3835.768251870075</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-15051.59980584004</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-31407.09010584004</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-55671.00690584004</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-43518.17390584004</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>91649.46119415997</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>91649.46119415997</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-48669.02838117001</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-12624.60798117001</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-12624.60798117001</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-11272.85168117001</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-143204.24648117</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-143204.24648117</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-142642.23248117</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-56947.04800346</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>107203.92679654</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>107868.53429654</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>98805.49139653999</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>98805.49139653999</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19690,11 +19690,17 @@
         <v>-43511704.12291814</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>239.3</v>
+      </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19723,11 +19729,17 @@
         <v>-43511704.12291814</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>239.1</v>
+      </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19761,10 +19773,12 @@
       <c r="I587" t="n">
         <v>239.1</v>
       </c>
-      <c r="J587" t="n">
-        <v>239.1</v>
-      </c>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19798,12 +19812,10 @@
       <c r="I588" t="n">
         <v>239.2</v>
       </c>
-      <c r="J588" t="n">
-        <v>239.1</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L588" t="n">
@@ -19839,12 +19851,10 @@
       <c r="I589" t="n">
         <v>239.6</v>
       </c>
-      <c r="J589" t="n">
-        <v>239.1</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L589" t="n">
@@ -19879,7 +19889,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19912,7 +19926,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19945,7 +19963,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19978,7 +20000,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20011,7 +20037,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20044,7 +20074,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20077,7 +20111,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20110,7 +20148,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20139,15 +20181,13 @@
         <v>-43493950.01822171</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>239.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L598" t="n">
@@ -20178,11 +20218,9 @@
         <v>-43493950.01822171</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>239.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
@@ -20217,11 +20255,9 @@
         <v>-43493830.38822171</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>239.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -22291,11 +22327,9 @@
         <v>-43318582.64806582</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -22330,11 +22364,9 @@
         <v>-43318582.64806582</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -22369,11 +22401,9 @@
         <v>-43325699.63386582</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -22408,11 +22438,9 @@
         <v>-43321210.35986582</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
@@ -22447,11 +22475,9 @@
         <v>-43327374.43740384</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -22486,11 +22512,9 @@
         <v>-43327374.43740384</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -22525,11 +22549,9 @@
         <v>-43327374.43740384</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -22564,11 +22586,9 @@
         <v>-43614098.47690384</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -22603,11 +22623,9 @@
         <v>-43596942.25130384</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -22642,11 +22660,9 @@
         <v>-43582895.96600384</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
@@ -22876,11 +22892,9 @@
         <v>-43670327.44590384</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -22915,11 +22929,9 @@
         <v>-43670327.44590384</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -22954,11 +22966,9 @@
         <v>-43681921.05380384</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -23032,11 +23042,9 @@
         <v>-43742979.54853675</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -23812,11 +23820,9 @@
         <v>-44003425.22313675</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
-      </c>
-      <c r="I695" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
@@ -23851,11 +23857,9 @@
         <v>-43984915.32663675</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
@@ -23890,11 +23894,9 @@
         <v>-43984915.32663675</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
@@ -23929,11 +23931,9 @@
         <v>-43984915.32663675</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
@@ -23968,11 +23968,9 @@
         <v>-43954074.36643676</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
@@ -24007,11 +24005,9 @@
         <v>-43953966.43133676</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
@@ -24120,11 +24116,9 @@
         <v>-43902178.95373677</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
@@ -25084,11 +25078,9 @@
         <v>-43809215.89428875</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -25123,11 +25115,9 @@
         <v>-43848605.97118875</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -25162,11 +25152,9 @@
         <v>-43848605.97118875</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -25201,11 +25189,9 @@
         <v>-43848223.56198875</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -25240,11 +25226,9 @@
         <v>-43848223.56198875</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
@@ -25279,11 +25263,9 @@
         <v>-43848659.67268874</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -25318,11 +25300,9 @@
         <v>-43848659.67268874</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -25357,11 +25337,9 @@
         <v>-43848659.67268874</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -25396,11 +25374,9 @@
         <v>-43848362.67268874</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
@@ -25435,11 +25411,9 @@
         <v>-43859392.57268874</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -25474,11 +25448,9 @@
         <v>-43854996.23878875</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -25513,11 +25485,9 @@
         <v>-43865269.60718875</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -25552,11 +25522,9 @@
         <v>-43865269.60718875</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -25591,11 +25559,9 @@
         <v>-43897507.17318875</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
-      </c>
-      <c r="I742" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
@@ -25630,11 +25596,9 @@
         <v>-43897507.17318875</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
@@ -25669,11 +25633,9 @@
         <v>-43916025.94428875</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -25708,11 +25670,9 @@
         <v>-43869739.26688875</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
-      </c>
-      <c r="I745" t="n">
-        <v>238.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -26215,11 +26175,9 @@
         <v>-43988565.8894953</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
@@ -26254,11 +26212,9 @@
         <v>-43988565.8894953</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
-      </c>
-      <c r="I759" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
@@ -26293,11 +26249,9 @@
         <v>-43960405.0852953</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
-      </c>
-      <c r="I760" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
@@ -26332,11 +26286,9 @@
         <v>-43938480.1952953</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
-      </c>
-      <c r="I761" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
@@ -26371,11 +26323,9 @@
         <v>-43894796.4297953</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -26410,11 +26360,9 @@
         <v>-43894796.4297953</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -26449,11 +26397,9 @@
         <v>-43927212.1006953</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
@@ -26599,11 +26545,9 @@
         <v>-43923099.6414953</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
@@ -26638,11 +26582,9 @@
         <v>-44038957.39142612</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -26677,11 +26619,9 @@
         <v>-44015907.45372612</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
@@ -26716,11 +26656,9 @@
         <v>-44028790.63362612</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
-      </c>
-      <c r="I771" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
@@ -26755,11 +26693,9 @@
         <v>-44056539.00442612</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -26794,11 +26730,9 @@
         <v>-44056539.00442612</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
@@ -26833,11 +26767,9 @@
         <v>-44054716.38352612</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
@@ -26872,11 +26804,9 @@
         <v>-44046948.28892612</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
@@ -26911,11 +26841,9 @@
         <v>-44061746.30792613</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
@@ -26950,11 +26878,9 @@
         <v>-44058692.77412613</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
@@ -26989,11 +26915,9 @@
         <v>-44058692.77412613</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
-      </c>
-      <c r="I778" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
@@ -27583,11 +27507,9 @@
         <v>-44025031.17682613</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
-      </c>
-      <c r="I794" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
@@ -27622,11 +27544,9 @@
         <v>-44025031.17682613</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
-      </c>
-      <c r="I795" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
@@ -27661,11 +27581,9 @@
         <v>-44019581.63772613</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
-      </c>
-      <c r="I796" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
@@ -27700,11 +27618,9 @@
         <v>-44019581.63772613</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
-      </c>
-      <c r="I797" t="n">
-        <v>239.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
@@ -27739,11 +27655,9 @@
         <v>-44060553.10162236</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>239.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -27778,11 +27692,9 @@
         <v>-44048943.23341859</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
-      </c>
-      <c r="I799" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -27817,11 +27729,9 @@
         <v>-44048943.23341859</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
-      </c>
-      <c r="I800" t="n">
-        <v>239.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -27856,11 +27766,9 @@
         <v>-44054260.77071859</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
-      </c>
-      <c r="I801" t="n">
-        <v>239.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -27895,11 +27803,9 @@
         <v>-44053042.55031859</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
-      </c>
-      <c r="I802" t="n">
-        <v>239.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -27934,11 +27840,9 @@
         <v>-44075709.08311859</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>239.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -28565,11 +28469,9 @@
         <v>-44130208.53671858</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
-      </c>
-      <c r="I820" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -28604,11 +28506,9 @@
         <v>-44163101.55801859</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
-      </c>
-      <c r="I821" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -28643,11 +28543,9 @@
         <v>-44148362.92911859</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -28682,11 +28580,9 @@
         <v>-44150204.66151859</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
-      </c>
-      <c r="I823" t="n">
-        <v>239.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -28721,11 +28617,9 @@
         <v>-44159104.42581859</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
-      </c>
-      <c r="I824" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -28760,11 +28654,9 @@
         <v>-44135544.37471859</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
-      </c>
-      <c r="I825" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -29428,11 +29320,9 @@
         <v>-44244535.89243693</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -29467,11 +29357,9 @@
         <v>-44244405.43663693</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -29506,11 +29394,9 @@
         <v>-44244405.43663693</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>239.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -31210,11 +31096,9 @@
         <v>-44185495.48589202</v>
       </c>
       <c r="H891" t="n">
-        <v>1</v>
-      </c>
-      <c r="I891" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
@@ -31249,11 +31133,9 @@
         <v>-44187022.22129202</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>239.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -31288,11 +31170,9 @@
         <v>-44187022.22129202</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
@@ -31327,11 +31207,9 @@
         <v>-44181249.28039202</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -31366,11 +31244,9 @@
         <v>-44181249.28039202</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>239.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -31405,11 +31281,9 @@
         <v>-44181249.28039202</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>239.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -31666,11 +31540,9 @@
         <v>-44312258.74329203</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -31705,11 +31577,9 @@
         <v>-44314550.21059202</v>
       </c>
       <c r="H904" t="n">
-        <v>1</v>
-      </c>
-      <c r="I904" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
@@ -31744,11 +31614,9 @@
         <v>-44314550.21059202</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
-      </c>
-      <c r="I905" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
@@ -31783,11 +31651,9 @@
         <v>-44303954.54789203</v>
       </c>
       <c r="H906" t="n">
-        <v>1</v>
-      </c>
-      <c r="I906" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
@@ -31822,11 +31688,9 @@
         <v>-44303954.54789203</v>
       </c>
       <c r="H907" t="n">
-        <v>1</v>
-      </c>
-      <c r="I907" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
@@ -31861,11 +31725,9 @@
         <v>-44301024.14489203</v>
       </c>
       <c r="H908" t="n">
-        <v>1</v>
-      </c>
-      <c r="I908" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
@@ -31900,11 +31762,9 @@
         <v>-44301024.14489203</v>
       </c>
       <c r="H909" t="n">
-        <v>1</v>
-      </c>
-      <c r="I909" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -31939,11 +31799,9 @@
         <v>-44301024.14489203</v>
       </c>
       <c r="H910" t="n">
-        <v>1</v>
-      </c>
-      <c r="I910" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -31978,11 +31836,9 @@
         <v>-44358314.20099203</v>
       </c>
       <c r="H911" t="n">
-        <v>1</v>
-      </c>
-      <c r="I911" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
@@ -32017,11 +31873,9 @@
         <v>-44528596.30389203</v>
       </c>
       <c r="H912" t="n">
-        <v>1</v>
-      </c>
-      <c r="I912" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
@@ -34440,18 +34294,16 @@
         <v>-43622759.98770684</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L977" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L977" t="inlineStr"/>
       <c r="M977" t="inlineStr"/>
     </row>
     <row r="978">
@@ -34477,15 +34329,11 @@
         <v>-43678006.23090684</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -34514,15 +34362,11 @@
         <v>-43682105.39960684</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -34555,11 +34399,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -34592,11 +34432,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -34625,15 +34461,11 @@
         <v>-43659054.90215848</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -34666,11 +34498,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -34703,11 +34531,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -34740,11 +34564,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -34777,11 +34597,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34814,11 +34630,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34851,11 +34663,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34888,11 +34696,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34925,11 +34729,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34962,11 +34762,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34999,11 +34795,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -35036,11 +34828,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -35073,11 +34861,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -35110,11 +34894,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -35147,11 +34927,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -35184,11 +34960,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -35217,15 +34989,11 @@
         <v>-43620730.15855847</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -35254,15 +35022,11 @@
         <v>-43620727.35855848</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -35291,15 +35055,11 @@
         <v>-43620727.35855848</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -35328,15 +35088,11 @@
         <v>-43629719.86935847</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -35365,15 +35121,11 @@
         <v>-43628788.63775847</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -35406,11 +35158,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -35443,11 +35191,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -35476,15 +35220,11 @@
         <v>-43628982.30745847</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -35513,15 +35253,11 @@
         <v>-43621829.61585847</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -35550,15 +35286,11 @@
         <v>-43637829.61585847</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -35587,15 +35319,11 @@
         <v>-43637829.61585847</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -35624,17 +35352,11 @@
         <v>-43637380.28425846</v>
       </c>
       <c r="H1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1009" t="n">
-        <v>240</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -35663,17 +35385,11 @@
         <v>-43637807.13305847</v>
       </c>
       <c r="H1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1010" t="n">
-        <v>240.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -35702,17 +35418,11 @@
         <v>-43637807.13305847</v>
       </c>
       <c r="H1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1011" t="n">
-        <v>239.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -35741,17 +35451,11 @@
         <v>-43637807.13305847</v>
       </c>
       <c r="H1012" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1012" t="n">
-        <v>239.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -35780,17 +35484,11 @@
         <v>-43637807.13305847</v>
       </c>
       <c r="H1013" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1013" t="n">
-        <v>239.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -35819,17 +35517,11 @@
         <v>-43636884.31945846</v>
       </c>
       <c r="H1014" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1014" t="n">
-        <v>239.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -35858,17 +35550,11 @@
         <v>-43636884.31945846</v>
       </c>
       <c r="H1015" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1015" t="n">
-        <v>240</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -35897,17 +35583,11 @@
         <v>-43644249.56055846</v>
       </c>
       <c r="H1016" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1016" t="n">
-        <v>240</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35936,17 +35616,11 @@
         <v>-43644249.56055846</v>
       </c>
       <c r="H1017" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1017" t="n">
-        <v>239.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35975,17 +35649,11 @@
         <v>-43644374.98195846</v>
       </c>
       <c r="H1018" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1018" t="n">
-        <v>239.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -36014,17 +35682,11 @@
         <v>-43644086.98905846</v>
       </c>
       <c r="H1019" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1019" t="n">
-        <v>239.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -36053,17 +35715,11 @@
         <v>-43644285.72815847</v>
       </c>
       <c r="H1020" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1020" t="n">
-        <v>239.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -36092,17 +35748,11 @@
         <v>-43644413.85065847</v>
       </c>
       <c r="H1021" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1021" t="n">
-        <v>239.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -36131,17 +35781,11 @@
         <v>-43644405.50515847</v>
       </c>
       <c r="H1022" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1022" t="n">
-        <v>239.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -36174,11 +35818,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -36207,17 +35847,11 @@
         <v>-43644405.50515847</v>
       </c>
       <c r="H1024" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1024" t="n">
-        <v>239.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -36246,17 +35880,11 @@
         <v>-43644405.50515847</v>
       </c>
       <c r="H1025" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1025" t="n">
-        <v>239.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -36285,17 +35913,11 @@
         <v>-43644405.50515847</v>
       </c>
       <c r="H1026" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1026" t="n">
-        <v>239.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -36324,17 +35946,11 @@
         <v>-43680560.39945847</v>
       </c>
       <c r="H1027" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1027" t="n">
-        <v>239.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -36367,11 +35983,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -36404,11 +36016,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -36441,11 +36049,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -36478,11 +36082,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -36515,11 +36115,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -36552,11 +36148,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -36589,11 +36181,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -36626,11 +36214,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -36664,12 +36248,10 @@
       <c r="I1036" t="n">
         <v>239.4</v>
       </c>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1036" t="n">
+        <v>239.4</v>
+      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -36703,10 +36285,12 @@
       <c r="I1037" t="n">
         <v>239.4</v>
       </c>
-      <c r="J1037" t="inlineStr"/>
+      <c r="J1037" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L1037" t="n">
@@ -36740,10 +36324,12 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
+      <c r="J1038" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1038" t="n">
@@ -36774,10 +36360,14 @@
         <v>-43869109.93685847</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1039" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36811,10 +36401,14 @@
         <v>-43869109.93685847</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1040" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36848,10 +36442,14 @@
         <v>-43873775.55045847</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1041" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36888,7 +36486,9 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
+      <c r="J1042" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1042" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36925,7 +36525,9 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
+      <c r="J1043" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1043" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36964,7 +36566,9 @@
       <c r="I1044" t="n">
         <v>239.2</v>
       </c>
-      <c r="J1044" t="inlineStr"/>
+      <c r="J1044" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1044" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37003,7 +36607,9 @@
       <c r="I1045" t="n">
         <v>239.2</v>
       </c>
-      <c r="J1045" t="inlineStr"/>
+      <c r="J1045" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1045" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37040,7 +36646,9 @@
         <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
+      <c r="J1046" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1046" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37077,7 +36685,9 @@
         <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
+      <c r="J1047" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1047" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37114,7 +36724,9 @@
         <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
+      <c r="J1048" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1048" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37151,7 +36763,9 @@
         <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
+      <c r="J1049" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1049" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37188,7 +36802,9 @@
         <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="inlineStr"/>
+      <c r="J1050" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1050" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37225,7 +36841,9 @@
         <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="inlineStr"/>
+      <c r="J1051" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1051" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37262,7 +36880,9 @@
         <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="inlineStr"/>
+      <c r="J1052" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1052" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37299,7 +36919,9 @@
         <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="inlineStr"/>
+      <c r="J1053" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1053" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37336,7 +36958,9 @@
         <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="inlineStr"/>
+      <c r="J1054" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1054" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37373,7 +36997,9 @@
         <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="inlineStr"/>
+      <c r="J1055" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1055" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37410,7 +37036,9 @@
         <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="inlineStr"/>
+      <c r="J1056" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1056" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37447,7 +37075,9 @@
         <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="inlineStr"/>
+      <c r="J1057" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1057" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37484,7 +37114,9 @@
         <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="inlineStr"/>
+      <c r="J1058" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1058" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37521,7 +37153,9 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="inlineStr"/>
+      <c r="J1059" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1059" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37558,7 +37192,9 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="inlineStr"/>
+      <c r="J1060" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1060" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37595,7 +37231,9 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="inlineStr"/>
+      <c r="J1061" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1061" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37632,7 +37270,9 @@
         <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="inlineStr"/>
+      <c r="J1062" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1062" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37669,7 +37309,9 @@
         <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="inlineStr"/>
+      <c r="J1063" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1063" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37706,7 +37348,9 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="inlineStr"/>
+      <c r="J1064" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1064" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37743,7 +37387,9 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="inlineStr"/>
+      <c r="J1065" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1065" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37780,7 +37426,9 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="inlineStr"/>
+      <c r="J1066" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1066" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37817,7 +37465,9 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="inlineStr"/>
+      <c r="J1067" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1067" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37854,7 +37504,9 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="inlineStr"/>
+      <c r="J1068" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1068" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37891,7 +37543,9 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="inlineStr"/>
+      <c r="J1069" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1069" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37928,7 +37582,9 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="inlineStr"/>
+      <c r="J1070" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37965,7 +37621,9 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="inlineStr"/>
+      <c r="J1071" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38002,7 +37660,9 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="inlineStr"/>
+      <c r="J1072" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38039,7 +37699,9 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="inlineStr"/>
+      <c r="J1073" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38076,7 +37738,9 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="inlineStr"/>
+      <c r="J1074" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38113,7 +37777,9 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="inlineStr"/>
+      <c r="J1075" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38150,7 +37816,9 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="inlineStr"/>
+      <c r="J1076" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38187,7 +37855,9 @@
         <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="inlineStr"/>
+      <c r="J1077" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38224,7 +37894,9 @@
         <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="inlineStr"/>
+      <c r="J1078" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38261,7 +37933,9 @@
         <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="inlineStr"/>
+      <c r="J1079" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38298,7 +37972,9 @@
         <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="inlineStr"/>
+      <c r="J1080" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38335,7 +38011,9 @@
         <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="inlineStr"/>
+      <c r="J1081" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38372,7 +38050,9 @@
         <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="inlineStr"/>
+      <c r="J1082" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38409,7 +38089,9 @@
         <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="inlineStr"/>
+      <c r="J1083" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38446,7 +38128,9 @@
         <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="inlineStr"/>
+      <c r="J1084" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38483,7 +38167,9 @@
         <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="inlineStr"/>
+      <c r="J1085" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38520,7 +38206,9 @@
         <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="inlineStr"/>
+      <c r="J1086" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38557,7 +38245,9 @@
         <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="inlineStr"/>
+      <c r="J1087" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38594,7 +38284,9 @@
         <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="inlineStr"/>
+      <c r="J1088" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38631,7 +38323,9 @@
         <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="inlineStr"/>
+      <c r="J1089" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38668,7 +38362,9 @@
         <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="inlineStr"/>
+      <c r="J1090" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38705,7 +38401,9 @@
         <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="inlineStr"/>
+      <c r="J1091" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38742,7 +38440,9 @@
         <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="inlineStr"/>
+      <c r="J1092" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38779,7 +38479,9 @@
         <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="inlineStr"/>
+      <c r="J1093" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38816,7 +38518,9 @@
         <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="inlineStr"/>
+      <c r="J1094" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38853,7 +38557,9 @@
         <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="inlineStr"/>
+      <c r="J1095" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38890,7 +38596,9 @@
         <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="inlineStr"/>
+      <c r="J1096" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38927,7 +38635,9 @@
         <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="inlineStr"/>
+      <c r="J1097" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38964,7 +38674,9 @@
         <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="inlineStr"/>
+      <c r="J1098" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39001,7 +38713,9 @@
         <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="inlineStr"/>
+      <c r="J1099" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39038,7 +38752,9 @@
         <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="inlineStr"/>
+      <c r="J1100" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39075,7 +38791,9 @@
         <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="inlineStr"/>
+      <c r="J1101" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39112,7 +38830,9 @@
         <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="inlineStr"/>
+      <c r="J1102" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39149,7 +38869,9 @@
         <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="inlineStr"/>
+      <c r="J1103" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39186,7 +38908,9 @@
         <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="inlineStr"/>
+      <c r="J1104" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39223,7 +38947,9 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="inlineStr"/>
+      <c r="J1105" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39260,7 +38986,9 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="inlineStr"/>
+      <c r="J1106" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39297,7 +39025,9 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="inlineStr"/>
+      <c r="J1107" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39334,7 +39064,9 @@
         <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="inlineStr"/>
+      <c r="J1108" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39371,7 +39103,9 @@
         <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="inlineStr"/>
+      <c r="J1109" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39408,7 +39142,9 @@
         <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="inlineStr"/>
+      <c r="J1110" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39445,7 +39181,9 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="inlineStr"/>
+      <c r="J1111" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39482,7 +39220,9 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="inlineStr"/>
+      <c r="J1112" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39519,7 +39259,9 @@
         <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="inlineStr"/>
+      <c r="J1113" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39556,7 +39298,9 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="inlineStr"/>
+      <c r="J1114" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39593,7 +39337,9 @@
         <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="inlineStr"/>
+      <c r="J1115" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39630,7 +39376,9 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="inlineStr"/>
+      <c r="J1116" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39667,7 +39415,9 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="inlineStr"/>
+      <c r="J1117" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39704,7 +39454,9 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="inlineStr"/>
+      <c r="J1118" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39741,7 +39493,9 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="inlineStr"/>
+      <c r="J1119" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39778,7 +39532,9 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="inlineStr"/>
+      <c r="J1120" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39815,7 +39571,9 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="inlineStr"/>
+      <c r="J1121" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39852,7 +39610,9 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
+      <c r="J1122" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39889,7 +39649,9 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
+      <c r="J1123" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39926,7 +39688,9 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
+      <c r="J1124" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39963,7 +39727,9 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
+      <c r="J1125" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40000,7 +39766,9 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
+      <c r="J1126" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40037,7 +39805,9 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="inlineStr"/>
+      <c r="J1127" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40074,7 +39844,9 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
+      <c r="J1128" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40111,7 +39883,9 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
+      <c r="J1129" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40148,7 +39922,9 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
+      <c r="J1130" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40185,7 +39961,9 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
+      <c r="J1131" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40222,7 +40000,9 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
+      <c r="J1132" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40259,7 +40039,9 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
+      <c r="J1133" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40296,7 +40078,9 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
+      <c r="J1134" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40333,7 +40117,9 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="inlineStr"/>
+      <c r="J1135" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40370,7 +40156,9 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
+      <c r="J1136" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40407,7 +40195,9 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
+      <c r="J1137" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40444,7 +40234,9 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
+      <c r="J1138" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40481,7 +40273,9 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
+      <c r="J1139" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40518,7 +40312,9 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
+      <c r="J1140" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40555,7 +40351,9 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="inlineStr"/>
+      <c r="J1141" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40592,7 +40390,9 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
+      <c r="J1142" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40629,7 +40429,9 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="inlineStr"/>
+      <c r="J1143" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40666,7 +40468,9 @@
         <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="inlineStr"/>
+      <c r="J1144" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40703,7 +40507,9 @@
         <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="inlineStr"/>
+      <c r="J1145" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40740,7 +40546,9 @@
         <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="inlineStr"/>
+      <c r="J1146" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40777,7 +40585,9 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="inlineStr"/>
+      <c r="J1147" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40814,7 +40624,9 @@
         <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="inlineStr"/>
+      <c r="J1148" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40851,7 +40663,9 @@
         <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="inlineStr"/>
+      <c r="J1149" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40888,7 +40702,9 @@
         <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="inlineStr"/>
+      <c r="J1150" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40922,12 +40738,12 @@
         <v>-44201918.70925403</v>
       </c>
       <c r="H1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1151" t="n">
-        <v>238.9</v>
-      </c>
-      <c r="J1151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1151" t="inlineStr"/>
+      <c r="J1151" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40961,12 +40777,12 @@
         <v>-44201918.70925403</v>
       </c>
       <c r="H1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1152" t="n">
-        <v>238.8</v>
-      </c>
-      <c r="J1152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1152" t="inlineStr"/>
+      <c r="J1152" t="n">
+        <v>239.4</v>
+      </c>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40978,6 +40794,6 @@
       <c r="M1152" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>